--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1589485.882613364</v>
+        <v>1584805.736247072</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12438634.80580571</v>
+        <v>12458824.03133925</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>763237.3199885261</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10348714.49353046</v>
+        <v>10479085.44806289</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>214.5483839110404</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>214.5483839110404</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.33592091243873</v>
       </c>
       <c r="I2" t="n">
-        <v>121.8660577518061</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.491001140031244</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>156.6448269284062</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>119.5207146396412</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3585222117499</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>47.05610701387619</v>
+        <v>44.06500919294029</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>148.8408619418025</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>214.5483839110404</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>149.1069942151808</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.4680439352272</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>130.9362408623913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>84.87149456363841</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>214.5483839110404</v>
+        <v>58.84422125033155</v>
       </c>
       <c r="X4" t="n">
-        <v>214.5483839110404</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.2299344537562</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.2299344537562</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.2299344537562</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>196.8282263342858</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708287</v>
+        <v>103.8974541908712</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>146.6334928097709</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470352</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185511</v>
+        <v>97.95007950277714</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046387</v>
+        <v>38.47015094419591</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>179.1557290335066</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>218.4503728551053</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057145</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>59.62174087769711</v>
       </c>
       <c r="W7" t="n">
-        <v>36.948894279234</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>93.1322260986062</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>18.71024957560494</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>199.5962211436408</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>44.02483164561383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>25.01141625626333</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045441</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081912</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307002103</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561444</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.425587695216</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366106</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919538</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440872</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108311</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>86.72290329781433</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2715658672809</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081912</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561444</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.425587695216</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366106</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919538</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440872</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>153.9036548888976</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>132.8121873168108</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>233.2715658672799</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081913</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374741</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561445</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.425587695216</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366106</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>70.63505245098105</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440873</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>27.24739666248491</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>136.9649966249136</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>4.665762779849726</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>19.91555826189198</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.55695577161151</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>30.9719158638759</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.40444476188422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>248.6571042139335</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>158.4589496224476</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.691977353173</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="C2" t="n">
-        <v>573.691977353173</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="D2" t="n">
-        <v>573.691977353173</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="E2" t="n">
-        <v>573.691977353173</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="F2" t="n">
-        <v>356.9764380490918</v>
+        <v>359.7826784871778</v>
       </c>
       <c r="G2" t="n">
-        <v>140.2608987450106</v>
+        <v>170.3628934706929</v>
       </c>
       <c r="H2" t="n">
-        <v>140.2608987450106</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>17.16387071288323</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>31.05318305989977</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>102.6081800812542</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L2" t="n">
-        <v>228.280243069839</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>399.7840650029184</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>578.6768064554334</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>734.2648881606822</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>832.5547153796666</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>858.1935356441616</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>852.6470698461502</v>
+        <v>738.6222485201475</v>
       </c>
       <c r="S2" t="n">
-        <v>694.4199719386692</v>
+        <v>738.6222485201475</v>
       </c>
       <c r="T2" t="n">
-        <v>694.4199719386692</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="U2" t="n">
-        <v>694.4199719386692</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="V2" t="n">
-        <v>694.4199719386692</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="W2" t="n">
-        <v>694.4199719386692</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="X2" t="n">
-        <v>573.691977353173</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.691977353173</v>
+        <v>549.2024635036627</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.5205658784811</v>
+        <v>365.2841702477754</v>
       </c>
       <c r="C3" t="n">
-        <v>166.067536597354</v>
+        <v>365.2841702477754</v>
       </c>
       <c r="D3" t="n">
-        <v>166.067536597354</v>
+        <v>365.2841702477754</v>
       </c>
       <c r="E3" t="n">
-        <v>166.067536597354</v>
+        <v>206.0467152423199</v>
       </c>
       <c r="F3" t="n">
-        <v>166.067536597354</v>
+        <v>59.51215726920489</v>
       </c>
       <c r="G3" t="n">
-        <v>166.067536597354</v>
+        <v>59.51215726920489</v>
       </c>
       <c r="H3" t="n">
-        <v>64.69529193902081</v>
+        <v>59.51215726920489</v>
       </c>
       <c r="I3" t="n">
-        <v>17.16387071288323</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>17.16387071288323</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>77.29481152483625</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>204.4708232206575</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>372.2360985370025</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>558.8502664055618</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>707.3459767696231</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>841.3670999720013</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>858.1935356441616</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>858.1935356441616</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="S3" t="n">
-        <v>707.8492306524419</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="T3" t="n">
-        <v>707.8492306524419</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="U3" t="n">
-        <v>707.8492306524419</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="V3" t="n">
-        <v>707.8492306524419</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="W3" t="n">
-        <v>491.1336913483607</v>
+        <v>533.4995072678435</v>
       </c>
       <c r="X3" t="n">
-        <v>340.5205658784811</v>
+        <v>533.4995072678435</v>
       </c>
       <c r="Y3" t="n">
-        <v>340.5205658784811</v>
+        <v>533.4995072678435</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.774845494555</v>
+        <v>505.6384258308209</v>
       </c>
       <c r="C4" t="n">
-        <v>37.83866256664808</v>
+        <v>336.702242902914</v>
       </c>
       <c r="D4" t="n">
-        <v>37.83866256664808</v>
+        <v>186.5856034905783</v>
       </c>
       <c r="E4" t="n">
-        <v>37.83866256664808</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="F4" t="n">
-        <v>37.83866256664808</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G4" t="n">
-        <v>37.83866256664808</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>37.83866256664808</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>37.83866256664808</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>17.16387071288323</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>17.16387071288323</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>169.5974159571968</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>368.7820135637046</v>
+        <v>465.2530182692154</v>
       </c>
       <c r="N4" t="n">
-        <v>568.6650630604488</v>
+        <v>587.36414522873</v>
       </c>
       <c r="O4" t="n">
-        <v>737.2731157652497</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="P4" t="n">
-        <v>858.0257505665122</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Q4" t="n">
-        <v>858.1935356441616</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="R4" t="n">
-        <v>725.934706490231</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="S4" t="n">
-        <v>725.934706490231</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="T4" t="n">
-        <v>725.934706490231</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="U4" t="n">
-        <v>725.934706490231</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="V4" t="n">
-        <v>640.2059241027174</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="W4" t="n">
-        <v>423.4903847986362</v>
+        <v>687.2868906610606</v>
       </c>
       <c r="X4" t="n">
-        <v>206.774845494555</v>
+        <v>687.2868906610606</v>
       </c>
       <c r="Y4" t="n">
-        <v>206.774845494555</v>
+        <v>687.2868906610606</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1256.740097465976</v>
+        <v>1044.162228265776</v>
       </c>
       <c r="C5" t="n">
-        <v>1256.740097465976</v>
+        <v>691.4047187165274</v>
       </c>
       <c r="D5" t="n">
-        <v>1256.740097465976</v>
+        <v>338.6472091672787</v>
       </c>
       <c r="E5" t="n">
-        <v>1256.740097465976</v>
+        <v>338.6472091672787</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763686</v>
+        <v>331.7017084180753</v>
       </c>
       <c r="G5" t="n">
-        <v>429.7231473797759</v>
+        <v>132.885318181423</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>132.885318181423</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809313</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301905</v>
+        <v>80.99020340874637</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232725</v>
+        <v>211.2396305620539</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>409.7273242458677</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.148464578731</v>
+        <v>662.2525653973846</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135168</v>
+        <v>923.4777373365775</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545598</v>
+        <v>1156.809998477536</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.63095817245</v>
+        <v>1321.452684169737</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904656</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904656</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904656</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904656</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904656</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904656</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="W5" t="n">
-        <v>2020.345187702868</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="X5" t="n">
-        <v>1646.879429441788</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1256.740097465976</v>
+        <v>1396.919737815025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782.3637009587545</v>
+        <v>772.8953502853299</v>
       </c>
       <c r="C6" t="n">
-        <v>607.9106716776275</v>
+        <v>598.4423210042029</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9106716776275</v>
+        <v>449.5079113429516</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6732166721721</v>
+        <v>449.5079113429516</v>
       </c>
       <c r="F6" t="n">
-        <v>302.138658699057</v>
+        <v>302.9733533698366</v>
       </c>
       <c r="G6" t="n">
-        <v>165.2626649141729</v>
+        <v>165.7366073290005</v>
       </c>
       <c r="H6" t="n">
-        <v>69.80729798300614</v>
+        <v>66.79713308377112</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809313</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="J6" t="n">
-        <v>214.3836900926281</v>
+        <v>40.71784159143091</v>
       </c>
       <c r="K6" t="n">
-        <v>427.1868157183634</v>
+        <v>332.4282120100555</v>
       </c>
       <c r="L6" t="n">
-        <v>684.7379512783514</v>
+        <v>513.2089724545681</v>
       </c>
       <c r="M6" t="n">
-        <v>1004.644846746861</v>
+        <v>743.5284611879802</v>
       </c>
       <c r="N6" t="n">
-        <v>1347.427370741493</v>
+        <v>994.352466366885</v>
       </c>
       <c r="O6" t="n">
-        <v>1638.786616996059</v>
+        <v>1201.587633459969</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.29503255696</v>
+        <v>1348.579058983953</v>
       </c>
       <c r="Q6" t="n">
-        <v>2154.745546059891</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904656</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.495166406374</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="T6" t="n">
-        <v>1848.529783544247</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="U6" t="n">
-        <v>1620.428193677511</v>
+        <v>1176.262795537141</v>
       </c>
       <c r="V6" t="n">
-        <v>1620.428193677511</v>
+        <v>941.110687305398</v>
       </c>
       <c r="W6" t="n">
-        <v>1366.190836949309</v>
+        <v>941.110687305398</v>
       </c>
       <c r="X6" t="n">
-        <v>1158.339336743776</v>
+        <v>941.110687305398</v>
       </c>
       <c r="Y6" t="n">
-        <v>950.5790379788225</v>
+        <v>941.110687305398</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>510.2586865446004</v>
+        <v>202.6189524559823</v>
       </c>
       <c r="C7" t="n">
-        <v>341.3225036166936</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="D7" t="n">
-        <v>341.3225036166936</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="E7" t="n">
-        <v>193.4094100343004</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="F7" t="n">
-        <v>193.4094100343004</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="G7" t="n">
-        <v>193.4094100343004</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809313</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809313</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="J7" t="n">
-        <v>58.69630920174247</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246708</v>
+        <v>148.5233105874692</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728888</v>
+        <v>358.3569215208643</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640792</v>
+        <v>589.986166501428</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>821.5424021750255</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152953</v>
+        <v>1019.405768767886</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271087</v>
+        <v>1165.191378612032</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693648</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="R7" t="n">
-        <v>1377.190882465731</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="S7" t="n">
-        <v>1178.011396849957</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="T7" t="n">
-        <v>1178.011396849957</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="U7" t="n">
-        <v>1178.011396849957</v>
+        <v>1182.690698049273</v>
       </c>
       <c r="V7" t="n">
-        <v>1178.011396849957</v>
+        <v>1122.46671736473</v>
       </c>
       <c r="W7" t="n">
-        <v>1140.689281416388</v>
+        <v>833.0495473277695</v>
       </c>
       <c r="X7" t="n">
-        <v>912.6997305183703</v>
+        <v>605.0599964297521</v>
       </c>
       <c r="Y7" t="n">
-        <v>691.9071513748402</v>
+        <v>384.267417286222</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740274</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102551</v>
+        <v>352.3948377958416</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345439</v>
+        <v>340.7304915605346</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816102</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872838</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923556</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740837</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2343.567165271468</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2343.567165271468</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1990.798510001354</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1617.332751740274</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.332751740274</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180674</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495403</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105038</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701984</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878147</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.6531669530571</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C10" t="n">
-        <v>472.6531669530571</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>472.6531669530571</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>324.7400733706639</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751034</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751034</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386096</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093922</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>990.059887888035</v>
+        <v>1434.833775484961</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6427178510744</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="X10" t="n">
-        <v>472.6531669530571</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.6531669530571</v>
+        <v>696.6344754064532</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1561.13247157855</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1561.13247157855</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1202.866772971799</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>817.078520373555</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2711.337401879563</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2711.337401879563</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2337.871643618483</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1947.732311642671</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.8928126690276</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>241.8928126690276</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>91.77617325669183</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E13" t="n">
-        <v>91.77617325669183</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="F13" t="n">
-        <v>91.77617325669183</v>
+        <v>300.0149148245548</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>132.8188155394348</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408147</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>644.3338566427974</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>423.5412774992673</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965433</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708303</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872368</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608107</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251957</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128797</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018658</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.4622249577</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.74720287481</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333951</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021303</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127313</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304053</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070903</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100994</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820543</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206858</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038826</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227557</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615044</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560488</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829338</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428633</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779282</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779282</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593767</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358716</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027598</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454382</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222639</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.839453523951</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061237</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.332461693788</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113949</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880634</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156357</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730862005</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693361</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213797</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005505</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020536</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856742</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410178</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936868</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.51642936868</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2360.51642936868</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2272.917537148665</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.233048942778</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905818</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555072</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614661</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.19673200791</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1153.408479409666</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>742.4225746200584</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>328.4394675364649</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608016</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608105</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>372.307498725196</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128806</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018658</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.4622249577</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.74720287481</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333952</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021303</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127312</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304052</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070902</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750222</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469771</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.3985331262</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856086</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119595006</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619194</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038826</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227557</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615044</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560488</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829338</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428633</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608105</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608105</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779281</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>240.4596049779281</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4596049779281</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>733.6583989593767</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1355.754362358716</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1902.630837358913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.214355784991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027598</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454382</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222639</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.839453523951</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.385284034031</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>929.4491011061237</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>779.332461693788</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>631.4193681113949</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.5294206134845</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880634</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608105</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156357</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730862005</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693361</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213797</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005505</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020536</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856742</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410178</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410178</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410178</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2428.375774410178</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2272.917537148665</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.233048942778</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1728.815878905818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.8263280078</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.03374886427</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555072</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1897.462430614661</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1539.19673200791</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1153.408479409666</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>742.4225746200584</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>328.4394675364649</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608105</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608196</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251967</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018659</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957701</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.74720287481</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333952</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021303</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127312</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304052</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070902</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750222</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469771</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.3985331262</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856086</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119595006</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619194</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038826</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227557</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615044</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560488</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829338</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428633</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608105</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608105</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779281</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>240.4596049779281</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>372.2013186924951</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>964.2196729446256</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1586.315636343965</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2133.192111344162</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027598</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454382</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222639</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.839453523951</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.9183350635819</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C22" t="n">
-        <v>561.9183350635819</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>561.9183350635819</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>414.0052414811888</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>414.0052414811888</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>246.7910466557677</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.4425088264939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608105</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156356</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730862004</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693359</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213797</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005505</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020536</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856741</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410177</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410177</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149108</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.52680186349</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178217</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.76609997233</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.348929935369</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X22" t="n">
-        <v>964.3593790373518</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.5667998938217</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368208</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>481.447947124485</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>481.447947124485</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>314.251847839365</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6192,7 +6192,7 @@
         <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6211,7 +6211,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378096</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>2505.71655096576</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>2357.803457383367</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>2357.803457383367</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925216</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>444.7013164925216</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>277.5052172074016</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6837,22 +6837,22 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>2655.833190378096</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E37" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,22 +7256,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1976.192826467915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7666,7 +7666,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>10.65198754992464</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34.51847501557174</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>9.230730152163986</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>135.5775581232899</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>99.67938739117007</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>41.92993463898929</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>56.27460493020837</v>
+        <v>193.6499349213314</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>168.7434581780566</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>283.7274268245211</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>141.0143920027649</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>101.6825818796756</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613726379</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584588</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627617</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>199.4625482506061</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>50.29152613726325</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108311</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584588</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627617</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>132.2817966595228</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>85.77246603528397</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>50.29152613726416</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>69.81893734097275</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108312</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>190.1580536648034</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.329716221310264</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.9188905722451</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>145.6085800303769</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>39.70888054695403</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>115.4620467826933</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>103.902616885432</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038462</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>37.52737017531066</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>919377.6970376024</v>
+        <v>917810.8397330708</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>925929.2611949219</v>
+        <v>923256.3811374102</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>928432.8178682191</v>
+        <v>928432.8178682192</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>763002.4410012843</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895756.5720670955</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895756.5720670957</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895756.5720670955</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117845</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="E2" t="n">
-        <v>443296.2286621968</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.8515647217</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647216</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647215</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985039</v>
@@ -26349,10 +26349,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>622828.4291610584</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>362597.5467771355</v>
+        <v>178997.5061427121</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596212</v>
+        <v>301519.8707731203</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171887</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>306241.8686975122</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744279</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>56135.29736002025</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>84305.15371228276</v>
+        <v>41617.52445267281</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824936</v>
+        <v>73739.30240019535</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>80518.2412563621</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269422.9546037581</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>172739.4922696459</v>
+        <v>229588.1389806966</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.230697938</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13430.06689216532</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13600.2754906174</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13600.2754906174</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13600.2754906174</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26453,7 +26453,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59135.89806094856</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587231</v>
+        <v>69851.97930029182</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138389</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138389</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138389</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417710.131413981</v>
+        <v>-392136.4009513881</v>
       </c>
       <c r="C6" t="n">
-        <v>-86858.97049086915</v>
+        <v>55239.52598808364</v>
       </c>
       <c r="D6" t="n">
-        <v>196179.9644280395</v>
+        <v>-5935.723499119136</v>
       </c>
       <c r="E6" t="n">
-        <v>173486.8413914495</v>
+        <v>-97916.86901614889</v>
       </c>
       <c r="F6" t="n">
-        <v>101757.5788627531</v>
+        <v>409568.5726083974</v>
       </c>
       <c r="G6" t="n">
-        <v>407999.4475602653</v>
+        <v>409568.5726083971</v>
       </c>
       <c r="H6" t="n">
-        <v>407999.4475602652</v>
+        <v>409568.5726083973</v>
       </c>
       <c r="I6" t="n">
-        <v>399097.0384053112</v>
+        <v>409568.5726083972</v>
       </c>
       <c r="J6" t="n">
-        <v>353780.654502734</v>
+        <v>360503.6278798526</v>
       </c>
       <c r="K6" t="n">
-        <v>325610.7981504712</v>
+        <v>367951.0481557245</v>
       </c>
       <c r="L6" t="n">
-        <v>384994.1126345046</v>
+        <v>335829.2702082017</v>
       </c>
       <c r="M6" t="n">
-        <v>362363.6860693392</v>
+        <v>276961.2788794705</v>
       </c>
       <c r="N6" t="n">
-        <v>329397.7106063921</v>
+        <v>409568.5726083972</v>
       </c>
       <c r="O6" t="n">
-        <v>409915.951862754</v>
+        <v>409568.5726083973</v>
       </c>
       <c r="P6" t="n">
-        <v>409915.9518627541</v>
+        <v>409568.5726083972</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571.7319412457479</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376849</v>
+        <v>687.6696919955708</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716391</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716391</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716391</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.5483839110404</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261641</v>
+        <v>349.2299344537562</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326013</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326013</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326013</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571.7319412457479</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>281.9787232919371</v>
+        <v>139.199751082666</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985668</v>
+        <v>246.3952001219685</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757567</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>268.264348123093</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625282691</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.5483839110404</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>327.5665728151237</v>
+        <v>161.7043472874361</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387486</v>
+        <v>291.3548976462825</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
-        <v>328.7438349237206</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777363529</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>214.5483839110404</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>327.5665728151237</v>
+        <v>161.7043472874359</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387486</v>
+        <v>291.3548976462827</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237206</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>214.5483839110404</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>327.5665728151237</v>
+        <v>161.7043472874361</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387486</v>
+        <v>291.3548976462825</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237206</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>192.327661830671</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>198.4559337397902</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>315.9361096804586</v>
+        <v>288.5579051937835</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.0345166081383</v>
+        <v>25.91829388988673</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1617793186921</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>250.2103860388278</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1137541197764</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.713802562566258</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.80465150854116</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.2079206381721</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.860476617591</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>37.14659924987922</v>
+        <v>64.16939599459957</v>
       </c>
       <c r="X3" t="n">
-        <v>56.66599098829667</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9599873332615</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0607161379586</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>124.4457329331446</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.0492188342166</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5404416842569</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2627934278437</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>167.2661487601896</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>71.97461442555061</v>
+        <v>227.6787770862595</v>
       </c>
       <c r="X4" t="n">
-        <v>11.16127147799676</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>33.50390720972439</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>16.04295731725136</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.45310716692677</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>215.7100099064952</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696038</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>202.6074759076421</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.321493021611957</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>13.6074892772572</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>7.393697477002235</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>192.5159024461309</v>
       </c>
       <c r="W7" t="n">
-        <v>249.574104057357</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>14.42968461979927</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>157.9130240298558</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>126.7107984473263</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>52.5414221801872</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.298419864304512</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>23.53869243530859</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>88.6098318185998</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>195.0755129580153</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3676258140254</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>362.7078927362346</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>403.58241699806</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>410.1128024375152</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>387.2578899118372</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>330.5156495118195</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>248.2034881214141</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>144.3781168011184</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>52.37524265783912</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>10.06133295599301</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1838735891443609</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.22976304343425</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.87692202474657</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>42.34052583753888</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>116.1856391167421</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5797630268368</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>267.0149976544411</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>311.5939079789325</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8408715465246</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>292.5919114788499</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>234.8308043203526</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.9781737548703</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>76.35318264410198</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>22.84230916203529</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.956808056649454</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08090546338383228</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.03099202519725</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>9.166456369481013</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>31.00474199411368</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>72.89113618144557</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7825280183714</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>153.2803961825076</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>161.6126862770562</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>157.7698978195029</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>145.7260364342441</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>124.6937991202201</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.33152312810792</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>46.35715051477816</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.96737920275571</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.405147744024613</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0562359286471228</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508279</v>
+        <v>2.764501274354052</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958417</v>
+        <v>28.31194867597844</v>
       </c>
       <c r="I5" t="n">
-        <v>132.312282993323</v>
+        <v>106.5784353795347</v>
       </c>
       <c r="J5" t="n">
-        <v>291.286936740926</v>
+        <v>234.6335900342074</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258715</v>
+        <v>351.6549289776145</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840431</v>
+        <v>436.2590348526273</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934784</v>
+        <v>485.4222343904212</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839013</v>
+        <v>493.2768736361797</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190909</v>
+        <v>465.7873640893216</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662302</v>
+        <v>397.5387388787058</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928398</v>
+        <v>298.5350369909013</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>173.6556031751428</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699498</v>
+        <v>62.99607278934301</v>
       </c>
       <c r="T5" t="n">
-        <v>15.0235916945275</v>
+        <v>12.10160432848487</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2211601019483241</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175398</v>
+        <v>1.479138582782926</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464134</v>
+        <v>14.28536473371931</v>
       </c>
       <c r="I6" t="n">
-        <v>63.2229124209512</v>
+        <v>50.92648190721917</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076064</v>
+        <v>139.7461588233641</v>
       </c>
       <c r="K6" t="n">
-        <v>296.519486191358</v>
+        <v>238.8484438698201</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616801</v>
+        <v>321.1612085117051</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730382</v>
+        <v>374.779982137586</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152847</v>
+        <v>384.699293072126</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884509</v>
+        <v>351.9246960536201</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475635</v>
+        <v>282.450594812294</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349508</v>
+        <v>188.8107426022556</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867497</v>
+        <v>91.83634113103118</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053861</v>
+        <v>27.47435043020038</v>
       </c>
       <c r="T6" t="n">
-        <v>7.40151038405785</v>
+        <v>5.961966480603107</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.09731174886729779</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526973</v>
+        <v>1.240060100319882</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619437</v>
+        <v>11.02526161920768</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017479</v>
+        <v>37.29198919871064</v>
       </c>
       <c r="J7" t="n">
-        <v>108.841112100157</v>
+        <v>87.67224909261563</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490428</v>
+        <v>144.0724371098917</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368738</v>
+        <v>184.3631170966486</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282508</v>
+        <v>194.3850573619611</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420141</v>
+        <v>189.7630151698598</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595398</v>
+        <v>175.2768585433957</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099894</v>
+        <v>149.97963249687</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451904</v>
+        <v>103.8381234913312</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153095</v>
+        <v>55.75761141983757</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735641</v>
+        <v>21.61086556648375</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978882</v>
+        <v>5.298438610457675</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.06763964183562998</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377448</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122306</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704068</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874084</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830458</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364299</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293348</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229648</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208699</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687556</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148631</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987177</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854262</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665729</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901958</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540917</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088202</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735829</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>640.3146339032794</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927669</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426234</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982476</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286968</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862183</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821097</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013762</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291853</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548576</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284956</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>173.139102227334</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900897</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640634</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265037</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>374.752540541689</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465977</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282436</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561751</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860864</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851346</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551973</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704648</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377448</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122306</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704068</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874084</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830458</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364299</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293348</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229648</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>919.857844208699</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687556</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148631</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987177</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854262</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665729</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901958</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540917</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088202</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735829</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>640.3146339032794</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927669</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426234</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982476</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286968</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862183</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821097</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013762</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291853</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548576</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284956</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>173.139102227334</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900897</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640634</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265037</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>374.752540541689</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465977</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282436</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561751</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860864</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851346</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551973</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704648</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377447</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122304</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704067</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874083</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830457</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364298</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293346</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229647</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086989</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687555</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.560423314863</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987176</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854262</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665729</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901957</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540917</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088202</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735829</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>271.6268178753964</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>740.132371550433</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927668</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426233</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982476</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862181</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821097</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013762</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291852</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548576</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284955</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>173.139102227334</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900897</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640633</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265037</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416889</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465976</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282436</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.064198356175</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860864</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851345</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551973</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704648</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>641.2555750770852</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>237.3557891543625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.029608431329</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>72.27777476904481</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>126.9414777662474</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>173.2361837707873</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>180.6997388409243</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>157.1596784901505</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>99.28265375654996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.89779824696458</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.73832405247779</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>128.4606178745669</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>169.4598740569142</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>188.4991594631913</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>149.9956670344054</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>135.3748719215941</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.99639966884874</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>153.9732780245592</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>201.1965632388968</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>201.9020701987315</v>
+        <v>123.3445726863784</v>
       </c>
       <c r="O4" t="n">
-        <v>170.3111643482838</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>121.9723583851136</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1694798764135328</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142397</v>
+        <v>53.58768550752112</v>
       </c>
       <c r="K5" t="n">
-        <v>216.473758780891</v>
+        <v>131.5650779326339</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140559</v>
+        <v>200.4926198826401</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662057</v>
+        <v>255.0760011631484</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873104</v>
+        <v>263.8638100395888</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974042</v>
+        <v>235.6891526676348</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109607</v>
+        <v>166.3057431234363</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.3119886183904</v>
+        <v>76.22934711645181</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>172.7419126813485</v>
+        <v>12.90853215669739</v>
       </c>
       <c r="K6" t="n">
-        <v>214.9526521472074</v>
+        <v>294.6569398167925</v>
       </c>
       <c r="L6" t="n">
-        <v>260.152662181806</v>
+        <v>182.6068287318309</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510199</v>
+        <v>232.6459482155677</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319514</v>
+        <v>253.3575809887927</v>
       </c>
       <c r="O6" t="n">
-        <v>294.3022689440065</v>
+        <v>209.3284516091757</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332333</v>
+        <v>148.4761873979638</v>
       </c>
       <c r="Q6" t="n">
-        <v>304.4954681847784</v>
+        <v>48.82896851623411</v>
       </c>
       <c r="R6" t="n">
-        <v>13.8528089341066</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348419</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231599</v>
+        <v>121.8029452840088</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971899</v>
+        <v>211.9531423569647</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900914</v>
+        <v>233.9689343238016</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212426</v>
+        <v>233.8951875490884</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735795</v>
+        <v>199.8619864574354</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748829</v>
+        <v>147.2581917617635</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349604</v>
+        <v>17.6760802396368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>535.6747904600984</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607221</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380653</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664427</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020621</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263739</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870123</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613486</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404136</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845856</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069163</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>498.1805999812611</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094337</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981789</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839173</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426752</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.7799221106612</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642069</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243795</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883443</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209175</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606373</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931371</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044807</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607221</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380653</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664427</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020621</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263739</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870123</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613486</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404136</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845856</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069163</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>498.1805999812611</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094337</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981789</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839173</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426752</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.7799221106612</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642069</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243795</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883443</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209175</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606373</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931371</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044807</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>282.319066160722</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380652</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664425</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020619</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263737</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870122</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613486</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404135</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845855</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069162</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>133.0724380955222</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094335</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981788</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839173</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066118</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642069</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243794</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883443</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209175</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606373</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>293.465085693137</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044807</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>509.9138629937518</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>430.2720547770426</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>94.75954470991805</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1584805.736247072</v>
+        <v>1586688.316368816</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12458824.03133925</v>
+        <v>12453496.45767769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>529228.9347558471</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10479085.44806289</v>
+        <v>10437187.66435676</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>28.33592091243873</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.709404802355</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.06671240279883135</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>44.06500919294029</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>139.842050858127</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>58.84422125033155</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537562</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537562</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>349.2299344537562</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>269.4044250257045</v>
       </c>
       <c r="G5" t="n">
-        <v>196.8282263342858</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908712</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277714</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419591</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>218.4503728551053</v>
+        <v>117.8356785732299</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057145</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>59.62174087769711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>207.1215012058125</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>245.7681201895062</v>
       </c>
       <c r="H8" t="n">
-        <v>286.5888679426061</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>199.5962211436408</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>27.50731052441974</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.0852834798118</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>286.0415509765136</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.329992873608546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>90.1273357563181</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>200.2564445245041</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9282565850106</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.5519331479903</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>85.2746196684475</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.408632107545714</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>119.8307224000743</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.9126861071572</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7577252378682</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.6506090954828</v>
       </c>
       <c r="H13" t="n">
-        <v>38.61213096654825</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.230327181292</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.9458255773844</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>185.2627311035917</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.5630920045448</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.875832822406664e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>34.3210644634681</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374744</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561481</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952167</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.542052877167</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>18.56378395868318</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>233.2715658671943</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082074</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374744</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561481</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952167</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.542052877167</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440969</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108454</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>86.72290329778011</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>132.8121873168108</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>233.2715658671925</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.875832822406664e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>84.61259060082074</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374744</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561481</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952167</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.272790488220365</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.542052877167</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440969</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108454</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.3384883584594</v>
       </c>
       <c r="T22" t="n">
-        <v>27.24739666248491</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>107.317805417867</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.665762779849726</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>50.49265242092916</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>156.0046924576054</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>30.9719158638759</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.2024635036627</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="C2" t="n">
-        <v>549.2024635036627</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="D2" t="n">
-        <v>549.2024635036627</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="E2" t="n">
-        <v>549.2024635036627</v>
+        <v>217.6519665656065</v>
       </c>
       <c r="F2" t="n">
-        <v>359.7826784871778</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>170.3628934706929</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201475</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201475</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036627</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036627</v>
+        <v>549.202463503662</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036627</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036627</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="X2" t="n">
-        <v>549.2024635036627</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.2024635036627</v>
+        <v>407.0717515820912</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>365.2841702477754</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="C3" t="n">
-        <v>365.2841702477754</v>
+        <v>571.5688305734704</v>
       </c>
       <c r="D3" t="n">
-        <v>365.2841702477754</v>
+        <v>422.6344209122192</v>
       </c>
       <c r="E3" t="n">
-        <v>206.0467152423199</v>
+        <v>263.3969659067637</v>
       </c>
       <c r="F3" t="n">
-        <v>59.51215726920489</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>59.51215726920489</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>59.51215726920489</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843283</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843283</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843283</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843283</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843283</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="W3" t="n">
-        <v>533.4995072678435</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="X3" t="n">
-        <v>533.4995072678435</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="Y3" t="n">
-        <v>533.4995072678435</v>
+        <v>571.6362168389238</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505.6384258308209</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="C4" t="n">
-        <v>336.702242902914</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="D4" t="n">
-        <v>186.5856034905783</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818521</v>
+        <v>598.8124044022341</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>451.9224569043237</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>283.2336334672386</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
         <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692154</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>587.36414522873</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846279</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846279</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846279</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846279</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846279</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846279</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="W4" t="n">
-        <v>687.2868906610606</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="X4" t="n">
-        <v>687.2868906610606</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="Y4" t="n">
-        <v>687.2868906610606</v>
+        <v>746.7254979846272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1044.162228265776</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="C5" t="n">
-        <v>691.4047187165274</v>
+        <v>1175.764921062845</v>
       </c>
       <c r="D5" t="n">
-        <v>338.6472091672787</v>
+        <v>817.4992224560942</v>
       </c>
       <c r="E5" t="n">
-        <v>338.6472091672787</v>
+        <v>817.4992224560942</v>
       </c>
       <c r="F5" t="n">
-        <v>331.7017084180753</v>
+        <v>545.3735406119482</v>
       </c>
       <c r="G5" t="n">
-        <v>132.885318181423</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="H5" t="n">
-        <v>132.885318181423</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9383947563005</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874637</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620539</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458677</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973846</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365775</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477536</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169737</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815025</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815025</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815025</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815025</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815025</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.919737815025</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="Y5" t="n">
-        <v>1396.919737815025</v>
+        <v>1544.727438003256</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772.8953502853299</v>
+        <v>494.2180142246707</v>
       </c>
       <c r="C6" t="n">
-        <v>598.4423210042029</v>
+        <v>319.7649849435437</v>
       </c>
       <c r="D6" t="n">
-        <v>449.5079113429516</v>
+        <v>170.8305752822924</v>
       </c>
       <c r="E6" t="n">
-        <v>449.5079113429516</v>
+        <v>170.8305752822924</v>
       </c>
       <c r="F6" t="n">
-        <v>302.9733533698366</v>
+        <v>170.8305752822924</v>
       </c>
       <c r="G6" t="n">
-        <v>165.7366073290005</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377112</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9383947563005</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143091</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>332.4282120100555</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
-        <v>513.2089724545681</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M6" t="n">
-        <v>743.5284611879802</v>
+        <v>778.8283598952908</v>
       </c>
       <c r="N6" t="n">
-        <v>994.352466366885</v>
+        <v>1064.162230328624</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459969</v>
+        <v>1302.967182080082</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983953</v>
+        <v>1475.296143033791</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1396.919737815025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1396.919737815025</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1176.262795537141</v>
+        <v>1567.43461517517</v>
       </c>
       <c r="V6" t="n">
-        <v>941.110687305398</v>
+        <v>1332.282506943427</v>
       </c>
       <c r="W6" t="n">
-        <v>941.110687305398</v>
+        <v>1078.045150215225</v>
       </c>
       <c r="X6" t="n">
-        <v>941.110687305398</v>
+        <v>870.1936500096926</v>
       </c>
       <c r="Y6" t="n">
-        <v>941.110687305398</v>
+        <v>662.4333512447388</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6189524559823</v>
+        <v>647.5850744831047</v>
       </c>
       <c r="C7" t="n">
-        <v>33.68276952807539</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D7" t="n">
-        <v>33.68276952807539</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>33.68276952807539</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>33.68276952807539</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807539</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807539</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807539</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J7" t="n">
-        <v>27.9383947563005</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874692</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208643</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>589.986166501428</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750255</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049273</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049273</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049273</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049273</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049273</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>1122.46671736473</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="W7" t="n">
-        <v>833.0495473277695</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="X7" t="n">
-        <v>605.0599964297521</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.267417286222</v>
+        <v>829.2335393133444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1454.537269016652</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>1454.537269016652</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450451</v>
+        <v>1096.271570409902</v>
       </c>
       <c r="E8" t="n">
-        <v>359.3403385450451</v>
+        <v>710.4833178116573</v>
       </c>
       <c r="F8" t="n">
-        <v>352.3948377958416</v>
+        <v>299.4974130220498</v>
       </c>
       <c r="G8" t="n">
-        <v>340.7304915605346</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,46 +4810,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1841.137109080774</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429752</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>801.9449557744482</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.9860105762135</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1434.833775484961</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W10" t="n">
-        <v>1145.416605448001</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="X10" t="n">
-        <v>917.4270545499834</v>
+        <v>575.2365734374705</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.6344754064532</v>
+        <v>354.4439942939404</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2323.494958579514</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1954.532441639102</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1596.266743032352</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1210.478490434107</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>799.4925856444997</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>385.2650265739828</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>96.33416700174685</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>86.90993177587963</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>346.0711268306668</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>785.2250958544209</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1366.936188936605</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2045.871301162748</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2740.406101688351</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3382.900357889001</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>3896.753340067333</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4234.462783154066</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4345.496588793982</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4254.458875908812</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4052.179639015374</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>3798.716753575969</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3467.653866232398</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3114.885210962284</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2741.419452701204</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2351.280120725392</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5594694786299</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.1064401975029</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1720305362517</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9345755307962</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.4000175576812</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.4889739738526</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>90.35299451077429</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>86.90993177587963</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>222.4467171615922</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>532.2554960922539</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>995.1541732976675</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1554.691964248578</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2143.447700485046</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2313.111198630434</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.111198630434</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.309060562389</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2554.676205525189</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2433.63507178774</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.814176730006</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.776070429129</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.623962197386</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.386605469185</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.535105263652</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.774806498698</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>549.036820427378</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>549.036820427378</v>
       </c>
       <c r="D13" t="n">
-        <v>594.8179559048583</v>
+        <v>549.036820427378</v>
       </c>
       <c r="E13" t="n">
-        <v>446.9048623224652</v>
+        <v>401.1237268449848</v>
       </c>
       <c r="F13" t="n">
-        <v>300.0149148245548</v>
+        <v>254.2337793470745</v>
       </c>
       <c r="G13" t="n">
-        <v>132.8188155394348</v>
+        <v>86.90993177587963</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>86.90993177587963</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>86.90993177587963</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>158.2938792768468</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>405.4364700167124</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>777.2203325507984</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1179.603410743464</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1577.853335128962</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1929.685303402608</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2207.217650882536</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2315.931582493799</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2315.931582493799</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2130.850443926837</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1910.703145363823</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1723.569073542013</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1468.884585336126</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1179.467415299165</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>951.4778644011478</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>730.6852852576177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905845</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965434</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1589.996253358683</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.208000760439</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.2220959708313</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.2389888872377</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608122</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322607933</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>372.3074987251889</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128647</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018631</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957661</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874758</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333889</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021229</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127232</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161303967</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421676</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100994</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820544</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476973</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206859</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945779</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969967</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038813</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227543</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.236677561503</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560475</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829324</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.684414342862</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322607933</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322607933</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779228</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412774</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385023</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1653.719034637144</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2275.814998036474</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2286.888151551088</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2286.888151551088</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.449425536331</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.87021893001</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.84071745438</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494436</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288903</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.839453523949</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>1015.754398433616</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>846.8182155057095</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>696.7015760933738</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>548.7884825109807</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>401.8985350130703</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>234.6843401876491</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322607933</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322607933</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156317</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861929</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693238</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.41388321378</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005483</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.13220602051</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856711</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410144</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.375774410144</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2428.375774410144</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2208.696992124526</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1919.620778439253</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1664.936290233366</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1646.184993305403</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1418.195442407386</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>1197.402863263856</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2266.424947554984</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1897.462430614572</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1539.196732007822</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1153.408479409578</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>742.4225746199702</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>328.4394675363766</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322607933</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322607933</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>372.3074987251889</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>841.9378825128647</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018631</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957661</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874758</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333889</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021229</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4514.497374127232</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161303967</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4555.113898070815</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4353.904749750133</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4100.461420469683</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3769.398533126112</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3416.629877855998</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3043.164119594918</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2653.024787619106</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038813</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227543</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.236677561503</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560475</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829324</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.684414342862</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322607933</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.85065580060102</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.85065580060102</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>424.3593983639556</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>915.0917312077013</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1507.110085459822</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.206048859152</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.87021893001</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.84071745438</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494436</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288903</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.839453523949</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.38528403403</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>929.4491011061234</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>779.3324616937876</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.4193681113945</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.5294206134841</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.315225788063</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.4425088264932</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322607933</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156317</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861929</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693238</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.41388321378</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005483</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.13220602051</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856711</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410144</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368645</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2272.917537148665</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2272.917537148665</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2272.917537148665</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.233048942778</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1728.815878905817</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>1500.8263280078</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.03374886427</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947554982</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614571</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.19673200782</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409576</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746199684</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>328.4394675363748</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322607931</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322607679</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>372.3074987251857</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128615</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1461.457663018629</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2182.462224957658</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874756</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333886</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4150.915188021228</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4514.49737412723</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161303965</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070813</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750131</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469681</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3769.39853312611</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3416.629877855996</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3043.164119594916</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619104</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038813</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227543</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.236677561503</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560475</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829324</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428619</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322607931</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322607931</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322607931</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>423.3203657894339</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>914.0526986331796</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1506.071052885301</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2128.16701628463</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.87021893001</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.84071745438</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494436</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288903</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.839453523949</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>494.0589900220484</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>492.7733430642501</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>342.6567036519143</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>342.6567036519143</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>342.6567036519143</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.4425088264931</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.4425088264931</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322607931</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156317</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861929</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693238</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.41388321378</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005483</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.13220602051</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856711</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410144</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368645</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2177.346239107575</v>
       </c>
       <c r="T22" t="n">
-        <v>2169.539922596168</v>
+        <v>1957.667456821956</v>
       </c>
       <c r="U22" t="n">
-        <v>1880.464695940366</v>
+        <v>1668.591243136683</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1413.906754930796</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1124.489584893836</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>896.5000339958183</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>675.7074548522882</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,13 +6062,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
         <v>427.7414352191925</v>
@@ -6080,7 +6080,7 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2395.960404367201</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2213.105570022105</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1993.504105045046</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6551,13 +6551,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876688</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6931,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,16 +7019,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7314,16 +7314,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>99.67938739117007</v>
+        <v>99.67938739116971</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898929</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6499349213314</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>147.359858416601</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241565</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.2265311390609</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>101.6825818796756</v>
+        <v>141.4191532602537</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>85.06915829158258</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>72.06183391645247</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>100.9286416931005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.29152613735264</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440969</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108454</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.3384883584594</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>267.9592143779078</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>50.29152613735059</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.875832822406664e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>94.61558506067925</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.77246603528397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>50.29152613735235</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>165.9740306104075</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>190.1580536648034</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9188905722451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>15.88259428919253</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>61.40075786968288</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>115.4620467826933</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>103.902616885432</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>24.63391537253441</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>923256.3811374102</v>
+        <v>924375.171606338</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900670.0829242655</v>
+        <v>865966.1305036891</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900670.0829242654</v>
+        <v>895756.5720670868</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900670.0829242655</v>
+        <v>895756.5720670868</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900670.0829242654</v>
+        <v>895756.5720670868</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>504138.4088227088</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>521741.8515647167</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.851564717</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985041</v>
+        <v>521741.8515647168</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
@@ -26352,7 +26352,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427121</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731203</v>
+        <v>225670.6156307094</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>425362.2539063228</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>68721.63163929181</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345746177</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267281</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019535</v>
+        <v>55419.25877810594</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>111092.4804797957</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18068.54477278829</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806966</v>
+        <v>208242.9969710037</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13562.02524635367</v>
       </c>
       <c r="F4" t="n">
+        <v>13600.27549061739</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13600.27549061739</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13600.27549061739</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26456,7 +26456,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029182</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>94344.49701971734</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138372</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138372</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138372</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392136.4009513881</v>
+        <v>-392136.4009513877</v>
       </c>
       <c r="C6" t="n">
-        <v>55239.52598808364</v>
+        <v>-9301.037496244942</v>
       </c>
       <c r="D6" t="n">
-        <v>-5935.723499119136</v>
+        <v>69913.53164329173</v>
       </c>
       <c r="E6" t="n">
-        <v>-97916.86901614889</v>
+        <v>-29243.97789425832</v>
       </c>
       <c r="F6" t="n">
-        <v>409568.5726083974</v>
+        <v>339231.9109254046</v>
       </c>
       <c r="G6" t="n">
-        <v>409568.5726083971</v>
+        <v>407953.5425646967</v>
       </c>
       <c r="H6" t="n">
-        <v>409568.5726083973</v>
+        <v>407953.5425646965</v>
       </c>
       <c r="I6" t="n">
-        <v>409568.5726083972</v>
+        <v>399062.3004798567</v>
       </c>
       <c r="J6" t="n">
-        <v>360503.6278798526</v>
+        <v>360816.2692087737</v>
       </c>
       <c r="K6" t="n">
-        <v>367951.0481557245</v>
+        <v>349634.0543457827</v>
       </c>
       <c r="L6" t="n">
-        <v>335829.2702082017</v>
+        <v>354461.9551592125</v>
       </c>
       <c r="M6" t="n">
-        <v>276961.2788794705</v>
+        <v>298788.7334575227</v>
       </c>
       <c r="N6" t="n">
-        <v>409568.5726083972</v>
+        <v>391812.6691645301</v>
       </c>
       <c r="O6" t="n">
-        <v>409568.5726083973</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="P6" t="n">
-        <v>409568.5726083972</v>
+        <v>409881.2139373184</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955708</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1297.841691286644</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716374</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716374</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716374</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537562</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1086.374147198495</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290325992</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290325992</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290325991</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.199751082666</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219685</v>
+        <v>184.0839356199294</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>363.7767991691043</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>60.19935742972984</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.934451625300198</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874361</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462825</v>
+        <v>218.9696938180573</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>445.7893150984563</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>73.77114312749632</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777365712</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874359</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462827</v>
+        <v>218.9696938180573</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>445.7893150984563</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>73.77114312749632</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874361</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462825</v>
+        <v>218.9696938180573</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>445.7893150984563</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>73.77114312749632</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>288.5579051937835</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988673</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>187.0428536677799</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.6417865855169</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.713802562566258</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459957</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>13.59161997369253</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>227.6787770862595</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972439</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725136</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.45310716692677</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>137.4716207160069</v>
       </c>
       <c r="G5" t="n">
-        <v>215.7100099064952</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>7.393697477002235</v>
+        <v>107.9995741271085</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2019108882319</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>192.5159024461309</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>11.46315214628234</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>165.7795825834478</v>
       </c>
       <c r="H8" t="n">
-        <v>14.42968461979927</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>46.91356563188728</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>52.5414221801872</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354052</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597844</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795347</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342074</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776145</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526273</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904212</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361797</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893216</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787058</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909013</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751428</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934301</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848487</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483241</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782926</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721917</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233641</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698201</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117051</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>374.779982137586</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>384.699293072126</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536201</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>282.450594812294</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022556</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020038</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603107</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729779</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319882</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871064</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261563</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098917</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966486</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619611</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433957</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>149.97963249687</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913312</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983757</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648375</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457675</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562998</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.217454035323187</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>53.4332511392536</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>201.1458966967974</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>442.8248894305117</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>663.6797187457423</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>823.3533776792646</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>916.1392758799432</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>930.9633671578052</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>879.0823085940602</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>750.276412097019</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>563.4263394570072</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>327.7408970463704</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>118.8927338299272</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>22.83940503962726</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4173963228258549</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.791584015220328</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>26.96082456804896</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>96.11374789245428</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.7434704906188</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>450.7795995103808</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>606.128801199484</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>707.3237217512208</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>726.0444759585537</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>313.9735152983714</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>356.3432507849668</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>173.3230847344692</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>51.85244870376351</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.25204258766439</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1836568431066006</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.340370262975914</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>20.80801924718588</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>70.3813166356757</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>165.4641775923972</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>271.9084723712016</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>347.9492298246192</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>366.8636767681244</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>358.1404785152145</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>330.8006986249958</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>283.0571452602869</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>195.9740953842832</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>105.231557460717</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>40.78627085568024</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>9.999763850897088</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1276565597986864</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377377</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122233</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>210.475889570404</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874023</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830369</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364186</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293223</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229521</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208687</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687453</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148554</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987132</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854246</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665698</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901901</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540879</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088165</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735793</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848182</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745668</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504235</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>759.721473092757</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>153.7812479945594</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286919</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436697</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862112</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821082</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013737</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291821</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548548</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>73.6458981828486</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273317</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900861</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640586</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574264987</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416841</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465932</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282397</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561724</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860849</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.6781096785129</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655196</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704631</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377377</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122233</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.475889570404</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874023</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830369</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364186</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293223</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229521</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208687</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687453</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148554</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987132</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854246</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665698</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901901</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540879</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088165</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>100.5719078530522</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848182</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745668</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504235</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.721473092757</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>570.444305970796</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862112</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821082</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013737</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291821</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548548</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.6458981828486</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273317</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900861</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640586</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574264987</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416841</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465932</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282397</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561724</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860849</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.6781096785129</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655196</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704631</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377377</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122233</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.475889570404</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874023</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830369</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364186</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293223</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229521</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208687</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687453</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148554</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987132</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854246</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665698</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901901</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540879</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088165</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848182</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745668</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504235</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>759.721473092757</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>571.493833823848</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862112</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821082</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013737</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291821</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548548</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.6458981828486</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273317</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900861</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640586</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574264987</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416841</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465932</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282397</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561724</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860849</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.6781096785129</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655196</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704631</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,16 +34859,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062405</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>123.3445726863784</v>
+        <v>123.344572686378</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752112</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326339</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826401</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631484</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395888</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676348</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234363</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645181</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669739</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
-        <v>294.6569398167925</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318309</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155677</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887927</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091757</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979638</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623411</v>
+        <v>213.2973839334705</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490884</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574354</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617635</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.6760802396368</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676403</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620068</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>261.7789849038255</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>443.5898677007618</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>587.5869627092773</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>685.7930426526705</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>701.5503035612144</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>648.9840971723735</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>519.0434163417494</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>341.1206495825577</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>112.1553592322383</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.9058438239522</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>312.9381605360218</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>467.5744214196098</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>565.1896878292025</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>594.7027638752204</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>171.3772708539269</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>216.3614766989453</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>27.64358077050525</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>72.10499747572439</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>249.6389805453188</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>375.5392550849353</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>406.447553729965</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>402.2726508944431</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>355.3858265390355</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>280.3357045251803</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>109.8120521325888</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>282.319066160716</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380563</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664313</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020496</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263612</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870002</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134757</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404059</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845811</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069126</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104592</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946926</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284051</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094238</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>11.1850035501149</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426704</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970578</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211065896</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642032</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243747</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883393</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209126</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606328</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931332</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>118.902155104478</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.319066160716</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380563</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664313</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020496</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263612</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870002</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134757</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404059</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845811</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.049527853052211</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104592</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946926</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284051</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094238</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>427.8480615263515</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211065896</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642032</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243747</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883393</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209126</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606328</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931332</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.902155104478</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.319066160716</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380563</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664313</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020496</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263612</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870002</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134757</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404059</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845811</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104592</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946926</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284051</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>628.3797610094238</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>428.8975893794036</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211065896</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642032</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243747</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883393</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209126</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606328</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931332</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.902155104478</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
